--- a/Arduino _Nano.xlsx
+++ b/Arduino _Nano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/gom22115_uvg_edu_gt/Documents/Writers ciclo 6/ELECTRÓNICA DIGITAL 2/Tareas/Labs/4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{D48D4A11-F2C0-4596-AD46-904C03770675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA9FAB8-D662-452E-8D51-0F1B9CDCF72C}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{D48D4A11-F2C0-4596-AD46-904C03770675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09015175-9A34-4976-ADE0-D4D723DB0113}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{684D2260-7FBB-4AB9-9740-E50412378ABE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
   <si>
     <t>D13</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>POT</t>
   </si>
 </sst>
 </file>
@@ -290,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +360,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -388,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -397,13 +412,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75BE24C-EDB0-43BF-96A1-38C129D81DA5}">
   <dimension ref="E1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,21 +1012,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="J1" s="12"/>
+      <c r="R1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="AA1" s="8" t="s">
+      <c r="S1" s="12"/>
+      <c r="AA1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="8"/>
+      <c r="AB1" s="12"/>
     </row>
     <row r="4" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
       <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1023,8 +1039,8 @@
       <c r="L4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
       <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1037,8 +1053,8 @@
       <c r="U4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
       <c r="Y4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1051,10 +1067,10 @@
       <c r="AD4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" s="9"/>
+      <c r="AE4" s="8"/>
     </row>
     <row r="5" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,8 +1080,8 @@
       <c r="L5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
       <c r="P5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1075,8 +1091,8 @@
       <c r="T5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
       <c r="Y5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1086,10 +1102,10 @@
       <c r="AC5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="9"/>
+      <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1099,8 +1115,8 @@
       <c r="L6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
       <c r="P6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1110,8 +1126,8 @@
       <c r="T6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
       <c r="Y6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1121,10 +1137,10 @@
       <c r="AC6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AD6" s="9"/>
+      <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1140,10 +1156,12 @@
       <c r="L7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="O7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1159,8 +1177,8 @@
       <c r="U7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
       <c r="X7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1176,12 +1194,12 @@
       <c r="AD7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AE7" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1197,10 +1215,10 @@
       <c r="L8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1216,8 +1234,8 @@
       <c r="U8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
       <c r="X8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1233,12 +1251,12 @@
       <c r="AD8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE8" s="12" t="s">
+      <c r="AE8" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1254,10 +1272,10 @@
       <c r="L9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1273,8 +1291,8 @@
       <c r="U9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
       <c r="X9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1290,10 +1308,9 @@
       <c r="AD9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE9" s="9"/>
+      <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E10" s="9"/>
       <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1309,10 +1326,10 @@
       <c r="L10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1328,8 +1345,8 @@
       <c r="U10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
       <c r="X10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1345,10 +1362,12 @@
       <c r="AD10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AE10" s="9"/>
+      <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
+      <c r="E11" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1364,10 +1383,12 @@
       <c r="L11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1383,8 +1404,10 @@
       <c r="U11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="X11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1400,10 +1423,12 @@
       <c r="AD11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AE11" s="9"/>
+      <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
+      <c r="E12" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="F12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1419,10 +1444,12 @@
       <c r="L12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="O12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1438,8 +1465,10 @@
       <c r="U12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="X12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1455,10 +1484,10 @@
       <c r="AD12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE12" s="9"/>
+      <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1474,10 +1503,10 @@
       <c r="L13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1493,8 +1522,8 @@
       <c r="U13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
       <c r="X13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1510,12 +1539,12 @@
       <c r="AD13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AE13" s="12" t="s">
+      <c r="AE13" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1531,10 +1560,10 @@
       <c r="L14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1550,8 +1579,8 @@
       <c r="U14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
       <c r="X14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1567,38 +1596,38 @@
       <c r="AD14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AE14" s="12" t="s">
+      <c r="AE14" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
       <c r="Q15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
       <c r="Z15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AE15" s="9"/>
+      <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
       <c r="G16" s="4" t="s">
         <v>54</v>
       </c>
@@ -1611,8 +1640,8 @@
       <c r="L16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
       <c r="P16" s="4" t="s">
         <v>54</v>
       </c>
@@ -1625,8 +1654,8 @@
       <c r="U16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
       <c r="Y16" s="4" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1668,7 @@
       <c r="AD16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AE16" s="9"/>
+      <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
@@ -1651,10 +1680,10 @@
       <c r="L17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="8"/>
       <c r="Q17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1664,8 +1693,8 @@
       <c r="U17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
       <c r="Z17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1675,7 +1704,7 @@
       <c r="AD17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE17" s="12" t="s">
+      <c r="AE17" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1689,10 +1718,10 @@
       <c r="L18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="8"/>
       <c r="Q18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1702,8 +1731,8 @@
       <c r="U18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
       <c r="Z18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1713,12 +1742,12 @@
       <c r="AD18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE18" s="12" t="s">
+      <c r="AE18" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="10"/>
+      <c r="F38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Arduino _Nano.xlsx
+++ b/Arduino _Nano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/gom22115_uvg_edu_gt/Documents/Writers ciclo 6/ELECTRÓNICA DIGITAL 2/Tareas/Labs/4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{D48D4A11-F2C0-4596-AD46-904C03770675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA9FAB8-D662-452E-8D51-0F1B9CDCF72C}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{D48D4A11-F2C0-4596-AD46-904C03770675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D07B112-E6C8-42C3-9E1D-64A58F763A41}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{684D2260-7FBB-4AB9-9740-E50412378ABE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
   <si>
     <t>D13</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>POT</t>
   </si>
 </sst>
 </file>
@@ -290,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +360,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -388,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -397,13 +412,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,10 +672,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,7 +994,7 @@
   <dimension ref="E1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,21 +1008,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="J1" s="12"/>
+      <c r="R1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="AA1" s="8" t="s">
+      <c r="S1" s="12"/>
+      <c r="AA1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="8"/>
+      <c r="AB1" s="12"/>
     </row>
     <row r="4" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
       <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1023,8 +1035,8 @@
       <c r="L4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
       <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1037,8 +1049,8 @@
       <c r="U4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
       <c r="Y4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1051,10 +1063,10 @@
       <c r="AD4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" s="9"/>
+      <c r="AE4" s="8"/>
     </row>
     <row r="5" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,8 +1076,8 @@
       <c r="L5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
       <c r="P5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1075,8 +1087,8 @@
       <c r="T5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
       <c r="Y5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1086,10 +1098,10 @@
       <c r="AC5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="9"/>
+      <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1099,8 +1111,8 @@
       <c r="L6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
       <c r="P6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1110,8 +1122,8 @@
       <c r="T6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
       <c r="Y6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1121,10 +1133,10 @@
       <c r="AC6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AD6" s="9"/>
+      <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1140,10 +1152,12 @@
       <c r="L7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="O7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1159,8 +1173,8 @@
       <c r="U7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
       <c r="X7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1176,12 +1190,12 @@
       <c r="AD7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AE7" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1197,10 +1211,10 @@
       <c r="L8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1216,8 +1230,8 @@
       <c r="U8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
       <c r="X8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1233,12 +1247,12 @@
       <c r="AD8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE8" s="12" t="s">
+      <c r="AE8" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1254,10 +1268,10 @@
       <c r="L9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1273,8 +1287,8 @@
       <c r="U9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
       <c r="X9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1290,10 +1304,10 @@
       <c r="AD9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE9" s="9"/>
+      <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1309,10 +1323,10 @@
       <c r="L10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1328,8 +1342,8 @@
       <c r="U10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
       <c r="X10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1345,10 +1359,12 @@
       <c r="AD10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AE10" s="9"/>
+      <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
+      <c r="E11" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1364,10 +1380,10 @@
       <c r="L11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1383,8 +1399,8 @@
       <c r="U11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
       <c r="X11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1400,10 +1416,12 @@
       <c r="AD11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AE11" s="9"/>
+      <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
+      <c r="E12" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="F12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1419,10 +1437,12 @@
       <c r="L12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="O12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1438,8 +1458,8 @@
       <c r="U12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
       <c r="X12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1455,10 +1475,10 @@
       <c r="AD12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE12" s="9"/>
+      <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1474,10 +1494,12 @@
       <c r="L13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="O13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1493,8 +1515,10 @@
       <c r="U13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="X13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1510,12 +1534,12 @@
       <c r="AD13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AE13" s="12" t="s">
+      <c r="AE13" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1531,10 +1555,10 @@
       <c r="L14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1550,8 +1574,10 @@
       <c r="U14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="X14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1567,38 +1593,38 @@
       <c r="AD14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AE14" s="12" t="s">
+      <c r="AE14" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
       <c r="Q15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
       <c r="Z15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AE15" s="9"/>
+      <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
       <c r="G16" s="4" t="s">
         <v>54</v>
       </c>
@@ -1611,8 +1637,8 @@
       <c r="L16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
       <c r="P16" s="4" t="s">
         <v>54</v>
       </c>
@@ -1625,8 +1651,8 @@
       <c r="U16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
       <c r="Y16" s="4" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1665,7 @@
       <c r="AD16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AE16" s="9"/>
+      <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
@@ -1651,10 +1677,10 @@
       <c r="L17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="8"/>
       <c r="Q17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1664,8 +1690,8 @@
       <c r="U17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
       <c r="Z17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1675,7 +1701,7 @@
       <c r="AD17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE17" s="12" t="s">
+      <c r="AE17" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1689,10 +1715,10 @@
       <c r="L18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="8"/>
       <c r="Q18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1702,8 +1728,8 @@
       <c r="U18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
       <c r="Z18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1713,12 +1739,12 @@
       <c r="AD18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE18" s="12" t="s">
+      <c r="AE18" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="10"/>
+      <c r="F38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
